--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AEE464-02AE-2B46-A628-2EBE7E6E4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA36A3-DC0B-3941-8CDF-4FE1A476B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3860" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="4060" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>unit</t>
   </si>
@@ -216,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR9" totalsRowShown="0">
-  <autoFilter ref="A1:AR9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR26" totalsRowShown="0">
+  <autoFilter ref="A1:AR26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="44">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,10 +681,10 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1748,6 +1748,2284 @@
         <v>1</v>
       </c>
       <c r="AR9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
         <v>1</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA36A3-DC0B-3941-8CDF-4FE1A476B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4060" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="4065" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,53 +215,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR26" totalsRowShown="0">
-  <autoFilter ref="A1:AR26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR26" totalsRowShown="0">
+  <autoFilter ref="A1:AR26"/>
   <tableColumns count="44">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
-    <tableColumn id="35" xr3:uid="{D983A755-D09D-2549-B077-D834C9C968AB}" name="2010"/>
-    <tableColumn id="36" xr3:uid="{EB98B56D-FE23-DF42-836E-7071CF499087}" name="2011"/>
-    <tableColumn id="37" xr3:uid="{32766B77-AA94-1748-988B-E5F51B823EFB}" name="2012"/>
-    <tableColumn id="38" xr3:uid="{EF9FABBD-5E33-5F4A-A9CF-CC5F0B34E1FB}" name="2013"/>
-    <tableColumn id="39" xr3:uid="{D5858403-3CB0-494F-BD32-96DF39AD7186}" name="2014"/>
-    <tableColumn id="40" xr3:uid="{C0CC9032-5BC5-A14B-BEB6-6C215571E4BA}" name="2015"/>
-    <tableColumn id="41" xr3:uid="{223293F8-97B3-EF48-AB8F-EB1053FF5A06}" name="2016"/>
-    <tableColumn id="42" xr3:uid="{56743070-278C-BE45-A140-82A50FEE3012}" name="2017"/>
-    <tableColumn id="43" xr3:uid="{EC984FBB-E428-EF45-98C9-04A1820BB3D3}" name="2018"/>
-    <tableColumn id="44" xr3:uid="{F5CE8AE9-4B9B-6549-887A-0B7F8FF877C4}" name="2019"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2021"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2022"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2023"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2024"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2025"/>
-    <tableColumn id="45" xr3:uid="{A7D13675-55B4-E546-9D38-D874D2349974}" name="2026"/>
-    <tableColumn id="46" xr3:uid="{E126CBA9-F862-4849-8F96-DA247B05B9B2}" name="2027"/>
-    <tableColumn id="47" xr3:uid="{B5892AA7-A4A2-AD49-A294-0718CF4092EC}" name="2028"/>
-    <tableColumn id="48" xr3:uid="{5F8C2E0B-B34A-2D41-BE22-98777CBCAA5B}" name="2029"/>
-    <tableColumn id="49" xr3:uid="{C794D40D-4398-1B41-988A-50F7B7CDAC2B}" name="2030"/>
-    <tableColumn id="50" xr3:uid="{4FDFD7CF-E070-974B-9871-ABB63D6BD90E}" name="2031"/>
-    <tableColumn id="51" xr3:uid="{52157ADD-7961-8A40-869C-9F7467134DAE}" name="2032"/>
-    <tableColumn id="52" xr3:uid="{9F60C393-A13B-DB45-925B-8771FC49C310}" name="2033"/>
-    <tableColumn id="53" xr3:uid="{C152417E-23A9-6946-BEAA-A149CE766058}" name="2034"/>
-    <tableColumn id="54" xr3:uid="{867E06D4-D62D-6841-80A8-C409FC424508}" name="2035"/>
-    <tableColumn id="55" xr3:uid="{D5F8013B-3B2C-6041-B5EF-BB27BB484B2F}" name="2036"/>
-    <tableColumn id="56" xr3:uid="{1352DC67-B667-F741-88CD-053192ED6EF1}" name="2037"/>
-    <tableColumn id="57" xr3:uid="{CF4FF0F5-7B49-734E-8F84-45C2DFD50341}" name="2038"/>
-    <tableColumn id="58" xr3:uid="{0741A53F-B1B9-4C4B-9227-99A936AC9857}" name="2039"/>
-    <tableColumn id="59" xr3:uid="{B6539615-6EA3-E84B-A8BD-3BFADF9DFCE0}" name="2040"/>
-    <tableColumn id="60" xr3:uid="{6EF55F9B-4377-F743-B699-991A17B31F9F}" name="2041"/>
-    <tableColumn id="61" xr3:uid="{E7420824-86F0-3147-A918-F2DCAD872C13}" name="2042"/>
-    <tableColumn id="62" xr3:uid="{FAED8714-1A7C-5646-A387-35236ED4F657}" name="2043"/>
-    <tableColumn id="63" xr3:uid="{0568332B-9040-684F-8C4A-73A7CF2F8AAA}" name="2044"/>
-    <tableColumn id="64" xr3:uid="{6FACD85D-EAC7-6D4E-B761-BA89E6B51753}" name="2045"/>
-    <tableColumn id="65" xr3:uid="{67B57015-A858-5145-B258-B9C2EBEB664C}" name="2046"/>
-    <tableColumn id="66" xr3:uid="{0214A31B-DB0B-0342-888B-797534C66924}" name="2047"/>
-    <tableColumn id="67" xr3:uid="{68422419-527A-AC49-BFB7-DE62A7EB15FD}" name="2048"/>
-    <tableColumn id="68" xr3:uid="{1760A3CF-AC68-CC4D-85C1-3BBE51BCF94F}" name="2049"/>
-    <tableColumn id="69" xr3:uid="{947A96E4-9491-AD4F-BFD0-8DB3EA4D22D3}" name="2050"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_heating_technology"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="35" name="2010"/>
+    <tableColumn id="36" name="2011"/>
+    <tableColumn id="37" name="2012"/>
+    <tableColumn id="38" name="2013"/>
+    <tableColumn id="39" name="2014"/>
+    <tableColumn id="40" name="2015"/>
+    <tableColumn id="41" name="2016"/>
+    <tableColumn id="42" name="2017"/>
+    <tableColumn id="43" name="2018"/>
+    <tableColumn id="44" name="2019"/>
+    <tableColumn id="5" name="2020"/>
+    <tableColumn id="6" name="2021"/>
+    <tableColumn id="7" name="2022"/>
+    <tableColumn id="8" name="2023"/>
+    <tableColumn id="9" name="2024"/>
+    <tableColumn id="10" name="2025"/>
+    <tableColumn id="45" name="2026"/>
+    <tableColumn id="46" name="2027"/>
+    <tableColumn id="47" name="2028"/>
+    <tableColumn id="48" name="2029"/>
+    <tableColumn id="49" name="2030"/>
+    <tableColumn id="50" name="2031"/>
+    <tableColumn id="51" name="2032"/>
+    <tableColumn id="52" name="2033"/>
+    <tableColumn id="53" name="2034"/>
+    <tableColumn id="54" name="2035"/>
+    <tableColumn id="55" name="2036"/>
+    <tableColumn id="56" name="2037"/>
+    <tableColumn id="57" name="2038"/>
+    <tableColumn id="58" name="2039"/>
+    <tableColumn id="59" name="2040"/>
+    <tableColumn id="60" name="2041"/>
+    <tableColumn id="61" name="2042"/>
+    <tableColumn id="62" name="2043"/>
+    <tableColumn id="63" name="2044"/>
+    <tableColumn id="64" name="2045"/>
+    <tableColumn id="65" name="2046"/>
+    <tableColumn id="66" name="2047"/>
+    <tableColumn id="67" name="2048"/>
+    <tableColumn id="68" name="2049"/>
+    <tableColumn id="69" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,22 +529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -679,7 +678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -813,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -947,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486BD0F-E831-FD4E-A340-C672341F7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4065" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24980" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>unit</t>
   </si>
@@ -155,11 +156,14 @@
   <si>
     <t>2050</t>
   </si>
+  <si>
+    <t>id_heating_system_action</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,53 +219,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR26" totalsRowShown="0">
-  <autoFilter ref="A1:AR26"/>
-  <tableColumns count="44">
-    <tableColumn id="2" name="id_region"/>
-    <tableColumn id="3" name="id_heating_technology"/>
-    <tableColumn id="4" name="unit"/>
-    <tableColumn id="35" name="2010"/>
-    <tableColumn id="36" name="2011"/>
-    <tableColumn id="37" name="2012"/>
-    <tableColumn id="38" name="2013"/>
-    <tableColumn id="39" name="2014"/>
-    <tableColumn id="40" name="2015"/>
-    <tableColumn id="41" name="2016"/>
-    <tableColumn id="42" name="2017"/>
-    <tableColumn id="43" name="2018"/>
-    <tableColumn id="44" name="2019"/>
-    <tableColumn id="5" name="2020"/>
-    <tableColumn id="6" name="2021"/>
-    <tableColumn id="7" name="2022"/>
-    <tableColumn id="8" name="2023"/>
-    <tableColumn id="9" name="2024"/>
-    <tableColumn id="10" name="2025"/>
-    <tableColumn id="45" name="2026"/>
-    <tableColumn id="46" name="2027"/>
-    <tableColumn id="47" name="2028"/>
-    <tableColumn id="48" name="2029"/>
-    <tableColumn id="49" name="2030"/>
-    <tableColumn id="50" name="2031"/>
-    <tableColumn id="51" name="2032"/>
-    <tableColumn id="52" name="2033"/>
-    <tableColumn id="53" name="2034"/>
-    <tableColumn id="54" name="2035"/>
-    <tableColumn id="55" name="2036"/>
-    <tableColumn id="56" name="2037"/>
-    <tableColumn id="57" name="2038"/>
-    <tableColumn id="58" name="2039"/>
-    <tableColumn id="59" name="2040"/>
-    <tableColumn id="60" name="2041"/>
-    <tableColumn id="61" name="2042"/>
-    <tableColumn id="62" name="2043"/>
-    <tableColumn id="63" name="2044"/>
-    <tableColumn id="64" name="2045"/>
-    <tableColumn id="65" name="2046"/>
-    <tableColumn id="66" name="2047"/>
-    <tableColumn id="67" name="2048"/>
-    <tableColumn id="68" name="2049"/>
-    <tableColumn id="69" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
+  <autoFilter ref="A1:AS76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="45">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
+    <tableColumn id="1" xr3:uid="{12E13B4D-3604-AA4B-8000-A4D8E3668DA5}" name="id_heating_system_action"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2010"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2011"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2012"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2013"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2014"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2015"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2016"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2017"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2018"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2019"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2021"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2022"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2023"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2024"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2025"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2026"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2027"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2028"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2029"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2030"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2031"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2032"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2033"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2034"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2035"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="2036"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="2037"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="2038"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="2039"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="2040"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2041"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="2042"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="2043"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="2044"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="2045"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="2046"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="2047"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2048"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="2049"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,22 +534,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="11" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -552,145 +558,148 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -811,20 +820,23 @@
       <c r="AR2">
         <v>1</v>
       </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -945,20 +957,23 @@
       <c r="AR3">
         <v>1</v>
       </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1079,20 +1094,23 @@
       <c r="AR4">
         <v>1</v>
       </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1213,20 +1231,23 @@
       <c r="AR5">
         <v>1</v>
       </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -1347,20 +1368,23 @@
       <c r="AR6">
         <v>1</v>
       </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1481,20 +1505,23 @@
       <c r="AR7">
         <v>1</v>
       </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1615,20 +1642,23 @@
       <c r="AR8">
         <v>1</v>
       </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1749,20 +1779,23 @@
       <c r="AR9">
         <v>1</v>
       </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1883,20 +1916,23 @@
       <c r="AR10">
         <v>1</v>
       </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -2017,20 +2053,23 @@
       <c r="AR11">
         <v>1</v>
       </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
         <v>210</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -2151,20 +2190,23 @@
       <c r="AR12">
         <v>1</v>
       </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
         <v>211</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -2285,20 +2327,23 @@
       <c r="AR13">
         <v>1</v>
       </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14">
         <v>212</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -2419,20 +2464,23 @@
       <c r="AR14">
         <v>1</v>
       </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15">
         <v>213</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -2553,20 +2601,23 @@
       <c r="AR15">
         <v>1</v>
       </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
@@ -2687,20 +2738,23 @@
       <c r="AR16">
         <v>1</v>
       </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -2821,20 +2875,23 @@
       <c r="AR17">
         <v>1</v>
       </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -2955,20 +3012,23 @@
       <c r="AR18">
         <v>1</v>
       </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -3089,20 +3149,23 @@
       <c r="AR19">
         <v>1</v>
       </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -3223,20 +3286,23 @@
       <c r="AR20">
         <v>1</v>
       </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -3357,20 +3423,23 @@
       <c r="AR21">
         <v>1</v>
       </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -3491,20 +3560,23 @@
       <c r="AR22">
         <v>1</v>
       </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
@@ -3625,20 +3697,23 @@
       <c r="AR23">
         <v>1</v>
       </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
@@ -3759,20 +3834,23 @@
       <c r="AR24">
         <v>1</v>
       </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
@@ -3893,20 +3971,23 @@
       <c r="AR25">
         <v>1</v>
       </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9</v>
       </c>
       <c r="B26">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
         <v>1</v>
       </c>
@@ -4025,6 +4106,6859 @@
         <v>1</v>
       </c>
       <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>1</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>210</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>211</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="AS38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>212</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>213</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1</v>
+      </c>
+      <c r="AS40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>1</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
+      <c r="AS53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="AS54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>210</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+      <c r="AS62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>211</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>212</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+      <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="AS64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>213</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65">
+        <v>1</v>
+      </c>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
+      </c>
+      <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1</v>
+      </c>
+      <c r="AS65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>1</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AC69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>42</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AC72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>1</v>
+      </c>
+      <c r="AS73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+      <c r="AS75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+      <c r="AS76">
         <v>1</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486BD0F-E831-FD4E-A340-C672341F7040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24980" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24975" windowHeight="19575"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -163,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,54 +218,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
-  <autoFilter ref="A1:AS76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
+  <autoFilter ref="A1:AS76"/>
   <tableColumns count="45">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
-    <tableColumn id="1" xr3:uid="{12E13B4D-3604-AA4B-8000-A4D8E3668DA5}" name="id_heating_system_action"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2010"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2011"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2012"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2013"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2014"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2015"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2016"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2017"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2018"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2019"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2021"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2022"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2023"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2024"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2025"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2026"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2027"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2028"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2029"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2030"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2031"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2032"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2033"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2034"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2035"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="2036"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="2037"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="2038"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="2039"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="2040"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2041"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="2042"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="2043"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="2044"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="2045"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="2046"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="2047"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2048"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="2049"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="2050"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_heating_technology"/>
+    <tableColumn id="1" name="id_heating_system_action"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="35" name="2010"/>
+    <tableColumn id="36" name="2011"/>
+    <tableColumn id="37" name="2012"/>
+    <tableColumn id="38" name="2013"/>
+    <tableColumn id="39" name="2014"/>
+    <tableColumn id="40" name="2015"/>
+    <tableColumn id="41" name="2016"/>
+    <tableColumn id="42" name="2017"/>
+    <tableColumn id="43" name="2018"/>
+    <tableColumn id="44" name="2019"/>
+    <tableColumn id="5" name="2020"/>
+    <tableColumn id="6" name="2021"/>
+    <tableColumn id="7" name="2022"/>
+    <tableColumn id="8" name="2023"/>
+    <tableColumn id="9" name="2024"/>
+    <tableColumn id="10" name="2025"/>
+    <tableColumn id="45" name="2026"/>
+    <tableColumn id="46" name="2027"/>
+    <tableColumn id="47" name="2028"/>
+    <tableColumn id="48" name="2029"/>
+    <tableColumn id="49" name="2030"/>
+    <tableColumn id="50" name="2031"/>
+    <tableColumn id="51" name="2032"/>
+    <tableColumn id="52" name="2033"/>
+    <tableColumn id="53" name="2034"/>
+    <tableColumn id="54" name="2035"/>
+    <tableColumn id="55" name="2036"/>
+    <tableColumn id="56" name="2037"/>
+    <tableColumn id="57" name="2038"/>
+    <tableColumn id="58" name="2039"/>
+    <tableColumn id="59" name="2040"/>
+    <tableColumn id="60" name="2041"/>
+    <tableColumn id="61" name="2042"/>
+    <tableColumn id="62" name="2043"/>
+    <tableColumn id="63" name="2044"/>
+    <tableColumn id="64" name="2045"/>
+    <tableColumn id="65" name="2046"/>
+    <tableColumn id="66" name="2047"/>
+    <tableColumn id="67" name="2048"/>
+    <tableColumn id="68" name="2049"/>
+    <tableColumn id="69" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,23 +533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="O32" sqref="O32:AS32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -687,7 +686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -824,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -961,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1386,130 +1385,130 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4841,100 +4840,100 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
@@ -8236,130 +8235,130 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -9181,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>9</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -10551,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:AS32"/>
+      <selection activeCell="AG87" sqref="AG87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,79 +2481,79 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -5906,79 +5906,79 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -9331,79 +9331,79 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD65">
         <v>1</v>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG87" sqref="AG87"/>
+      <selection activeCell="J32" sqref="J32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4825,19 +4825,19 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8953122B-58D9-A144-A92F-BF1313750955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24975" windowHeight="19575"/>
+    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24980" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>unit</t>
   </si>
@@ -158,11 +159,14 @@
   <si>
     <t>id_heating_system_action</t>
   </si>
+  <si>
+    <t>id_scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,54 +222,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AS76" totalsRowShown="0">
-  <autoFilter ref="A1:AS76"/>
-  <tableColumns count="45">
-    <tableColumn id="2" name="id_region"/>
-    <tableColumn id="3" name="id_heating_technology"/>
-    <tableColumn id="1" name="id_heating_system_action"/>
-    <tableColumn id="4" name="unit"/>
-    <tableColumn id="35" name="2010"/>
-    <tableColumn id="36" name="2011"/>
-    <tableColumn id="37" name="2012"/>
-    <tableColumn id="38" name="2013"/>
-    <tableColumn id="39" name="2014"/>
-    <tableColumn id="40" name="2015"/>
-    <tableColumn id="41" name="2016"/>
-    <tableColumn id="42" name="2017"/>
-    <tableColumn id="43" name="2018"/>
-    <tableColumn id="44" name="2019"/>
-    <tableColumn id="5" name="2020"/>
-    <tableColumn id="6" name="2021"/>
-    <tableColumn id="7" name="2022"/>
-    <tableColumn id="8" name="2023"/>
-    <tableColumn id="9" name="2024"/>
-    <tableColumn id="10" name="2025"/>
-    <tableColumn id="45" name="2026"/>
-    <tableColumn id="46" name="2027"/>
-    <tableColumn id="47" name="2028"/>
-    <tableColumn id="48" name="2029"/>
-    <tableColumn id="49" name="2030"/>
-    <tableColumn id="50" name="2031"/>
-    <tableColumn id="51" name="2032"/>
-    <tableColumn id="52" name="2033"/>
-    <tableColumn id="53" name="2034"/>
-    <tableColumn id="54" name="2035"/>
-    <tableColumn id="55" name="2036"/>
-    <tableColumn id="56" name="2037"/>
-    <tableColumn id="57" name="2038"/>
-    <tableColumn id="58" name="2039"/>
-    <tableColumn id="59" name="2040"/>
-    <tableColumn id="60" name="2041"/>
-    <tableColumn id="61" name="2042"/>
-    <tableColumn id="62" name="2043"/>
-    <tableColumn id="63" name="2044"/>
-    <tableColumn id="64" name="2045"/>
-    <tableColumn id="65" name="2046"/>
-    <tableColumn id="66" name="2047"/>
-    <tableColumn id="67" name="2048"/>
-    <tableColumn id="68" name="2049"/>
-    <tableColumn id="69" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AT76" totalsRowShown="0">
+  <autoFilter ref="A1:AT76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="46">
+    <tableColumn id="11" xr3:uid="{D9E4ABCE-B2A2-DC48-B86A-FD1AA61A2A9B}" name="id_scenario"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_heating_system_action"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2010"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2011"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2012"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2013"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2014"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2015"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2016"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2017"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2018"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2019"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2021"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2022"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2023"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2024"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2025"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2026"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2027"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2028"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2029"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2030"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2031"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2032"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2033"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2034"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2035"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="2036"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="2037"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="2038"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="2039"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="2040"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2041"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="2042"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="2043"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="2044"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="2045"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="2046"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="2047"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2048"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="2049"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,175 +538,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:N32"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -822,23 +831,26 @@
       <c r="AS2">
         <v>1</v>
       </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -959,23 +971,26 @@
       <c r="AS3">
         <v>1</v>
       </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1096,23 +1111,26 @@
       <c r="AS4">
         <v>1</v>
       </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -1233,23 +1251,26 @@
       <c r="AS5">
         <v>1</v>
       </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1370,23 +1391,26 @@
       <c r="AS6">
         <v>1</v>
       </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -1507,23 +1531,26 @@
       <c r="AS7">
         <v>0</v>
       </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1644,23 +1671,26 @@
       <c r="AS8">
         <v>1</v>
       </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1781,23 +1811,26 @@
       <c r="AS9">
         <v>1</v>
       </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>28</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
@@ -1918,23 +1951,26 @@
       <c r="AS10">
         <v>1</v>
       </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>29</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
@@ -2055,23 +2091,26 @@
       <c r="AS11">
         <v>1</v>
       </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>210</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -2192,23 +2231,26 @@
       <c r="AS12">
         <v>1</v>
       </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>211</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -2329,23 +2371,26 @@
       <c r="AS13">
         <v>1</v>
       </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>212</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -2466,23 +2511,26 @@
       <c r="AS14">
         <v>1</v>
       </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>213</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -2556,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -2603,23 +2651,26 @@
       <c r="AS15">
         <v>1</v>
       </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
@@ -2740,23 +2791,26 @@
       <c r="AS16">
         <v>1</v>
       </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -2877,23 +2931,26 @@
       <c r="AS17">
         <v>1</v>
       </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>33</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -3014,23 +3071,26 @@
       <c r="AS18">
         <v>1</v>
       </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>34</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
@@ -3151,23 +3211,26 @@
       <c r="AS19">
         <v>1</v>
       </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>41</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -3288,23 +3351,26 @@
       <c r="AS20">
         <v>1</v>
       </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>42</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -3425,23 +3491,26 @@
       <c r="AS21">
         <v>1</v>
       </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>43</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
@@ -3562,23 +3631,26 @@
       <c r="AS22">
         <v>1</v>
       </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>44</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
@@ -3699,23 +3771,26 @@
       <c r="AS23">
         <v>1</v>
       </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>45</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
         <v>1</v>
       </c>
@@ -3836,23 +3911,26 @@
       <c r="AS24">
         <v>1</v>
       </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>46</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -3973,23 +4051,26 @@
       <c r="AS25">
         <v>1</v>
       </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>50</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -4110,23 +4191,26 @@
       <c r="AS26">
         <v>1</v>
       </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -4247,23 +4331,26 @@
       <c r="AS27">
         <v>1</v>
       </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>21</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
         <v>1</v>
       </c>
@@ -4384,23 +4471,26 @@
       <c r="AS28">
         <v>1</v>
       </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>22</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
@@ -4521,23 +4611,26 @@
       <c r="AS29">
         <v>1</v>
       </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
@@ -4658,23 +4751,26 @@
       <c r="AS30">
         <v>1</v>
       </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>24</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>2</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31">
         <v>1</v>
       </c>
@@ -4795,23 +4891,26 @@
       <c r="AS31">
         <v>1</v>
       </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>25</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
@@ -4825,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4932,23 +5031,26 @@
       <c r="AS32">
         <v>0</v>
       </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>26</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
@@ -5069,23 +5171,26 @@
       <c r="AS33">
         <v>1</v>
       </c>
+      <c r="AT33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>27</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
         <v>1</v>
       </c>
@@ -5206,23 +5311,26 @@
       <c r="AS34">
         <v>1</v>
       </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>28</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
         <v>1</v>
       </c>
@@ -5343,23 +5451,26 @@
       <c r="AS35">
         <v>1</v>
       </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>29</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
@@ -5480,23 +5591,26 @@
       <c r="AS36">
         <v>1</v>
       </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>210</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>2</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
         <v>1</v>
       </c>
@@ -5617,23 +5731,26 @@
       <c r="AS37">
         <v>1</v>
       </c>
+      <c r="AT37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>211</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
       <c r="F38">
         <v>1</v>
       </c>
@@ -5754,23 +5871,26 @@
       <c r="AS38">
         <v>1</v>
       </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>212</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>2</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
         <v>1</v>
       </c>
@@ -5891,23 +6011,26 @@
       <c r="AS39">
         <v>1</v>
       </c>
+      <c r="AT39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>213</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
@@ -5981,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
         <v>1</v>
@@ -6028,23 +6151,26 @@
       <c r="AS40">
         <v>1</v>
       </c>
+      <c r="AT40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>31</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
       <c r="F41">
         <v>1</v>
       </c>
@@ -6165,23 +6291,26 @@
       <c r="AS41">
         <v>1</v>
       </c>
+      <c r="AT41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>32</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
       <c r="F42">
         <v>1</v>
       </c>
@@ -6302,23 +6431,26 @@
       <c r="AS42">
         <v>1</v>
       </c>
+      <c r="AT42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>33</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
       <c r="F43">
         <v>1</v>
       </c>
@@ -6439,23 +6571,26 @@
       <c r="AS43">
         <v>1</v>
       </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>34</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
       <c r="F44">
         <v>1</v>
       </c>
@@ -6576,23 +6711,26 @@
       <c r="AS44">
         <v>1</v>
       </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>41</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
       <c r="F45">
         <v>1</v>
       </c>
@@ -6713,23 +6851,26 @@
       <c r="AS45">
         <v>1</v>
       </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>42</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>2</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
       <c r="F46">
         <v>1</v>
       </c>
@@ -6850,23 +6991,26 @@
       <c r="AS46">
         <v>1</v>
       </c>
+      <c r="AT46">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>43</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>2</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>2</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
       <c r="F47">
         <v>1</v>
       </c>
@@ -6987,23 +7131,26 @@
       <c r="AS47">
         <v>1</v>
       </c>
+      <c r="AT47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>44</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
       <c r="F48">
         <v>1</v>
       </c>
@@ -7124,23 +7271,26 @@
       <c r="AS48">
         <v>1</v>
       </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>45</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -7261,23 +7411,26 @@
       <c r="AS49">
         <v>1</v>
       </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>46</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
       <c r="F50">
         <v>1</v>
       </c>
@@ -7398,23 +7551,26 @@
       <c r="AS50">
         <v>1</v>
       </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
         <v>9</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>2</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="F51">
         <v>1</v>
       </c>
@@ -7535,23 +7691,26 @@
       <c r="AS51">
         <v>1</v>
       </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
         <v>9</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>11</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
       <c r="F52">
         <v>1</v>
       </c>
@@ -7672,23 +7831,26 @@
       <c r="AS52">
         <v>1</v>
       </c>
+      <c r="AT52">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
         <v>9</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>21</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>2</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
       <c r="F53">
         <v>1</v>
       </c>
@@ -7809,23 +7971,26 @@
       <c r="AS53">
         <v>1</v>
       </c>
+      <c r="AT53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
         <v>9</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>22</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
       <c r="F54">
         <v>1</v>
       </c>
@@ -7946,23 +8111,26 @@
       <c r="AS54">
         <v>1</v>
       </c>
+      <c r="AT54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
         <v>9</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>23</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>2</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
       <c r="F55">
         <v>1</v>
       </c>
@@ -8083,23 +8251,26 @@
       <c r="AS55">
         <v>1</v>
       </c>
+      <c r="AT55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
         <v>9</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>24</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>2</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
       <c r="F56">
         <v>1</v>
       </c>
@@ -8220,23 +8391,26 @@
       <c r="AS56">
         <v>1</v>
       </c>
+      <c r="AT56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
         <v>9</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>25</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>2</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57">
         <v>0</v>
       </c>
@@ -8357,23 +8531,26 @@
       <c r="AS57">
         <v>0</v>
       </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>26</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>2</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -8494,23 +8671,26 @@
       <c r="AS58">
         <v>1</v>
       </c>
+      <c r="AT58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>27</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>3</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>2</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -8631,23 +8811,26 @@
       <c r="AS59">
         <v>1</v>
       </c>
+      <c r="AT59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>28</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>3</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
       <c r="F60">
         <v>1</v>
       </c>
@@ -8768,23 +8951,26 @@
       <c r="AS60">
         <v>1</v>
       </c>
+      <c r="AT60">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>29</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>2</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="F61">
         <v>1</v>
       </c>
@@ -8905,23 +9091,26 @@
       <c r="AS61">
         <v>1</v>
       </c>
+      <c r="AT61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>9</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>210</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>3</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>2</v>
       </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
       <c r="F62">
         <v>1</v>
       </c>
@@ -9042,23 +9231,26 @@
       <c r="AS62">
         <v>1</v>
       </c>
+      <c r="AT62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
         <v>9</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>211</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>3</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>2</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
       <c r="F63">
         <v>1</v>
       </c>
@@ -9179,23 +9371,26 @@
       <c r="AS63">
         <v>1</v>
       </c>
+      <c r="AT63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
         <v>9</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>212</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>2</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
       <c r="F64">
         <v>1</v>
       </c>
@@ -9316,23 +9511,26 @@
       <c r="AS64">
         <v>1</v>
       </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
         <v>9</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>213</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>2</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
       <c r="F65">
         <v>0</v>
       </c>
@@ -9406,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65">
         <v>1</v>
@@ -9453,23 +9651,26 @@
       <c r="AS65">
         <v>1</v>
       </c>
+      <c r="AT65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>9</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>31</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>2</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
       <c r="F66">
         <v>1</v>
       </c>
@@ -9590,23 +9791,26 @@
       <c r="AS66">
         <v>1</v>
       </c>
+      <c r="AT66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
         <v>9</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>32</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>3</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>2</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
       <c r="F67">
         <v>1</v>
       </c>
@@ -9727,23 +9931,26 @@
       <c r="AS67">
         <v>1</v>
       </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
         <v>9</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>33</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>3</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>2</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
       <c r="F68">
         <v>1</v>
       </c>
@@ -9864,23 +10071,26 @@
       <c r="AS68">
         <v>1</v>
       </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
         <v>9</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>34</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>2</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
       <c r="F69">
         <v>1</v>
       </c>
@@ -10001,23 +10211,26 @@
       <c r="AS69">
         <v>1</v>
       </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>9</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>41</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>3</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>2</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
       <c r="F70">
         <v>1</v>
       </c>
@@ -10138,23 +10351,26 @@
       <c r="AS70">
         <v>1</v>
       </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>42</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>3</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>2</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
       <c r="F71">
         <v>1</v>
       </c>
@@ -10275,23 +10491,26 @@
       <c r="AS71">
         <v>1</v>
       </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
         <v>9</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>43</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>3</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>2</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
       <c r="F72">
         <v>1</v>
       </c>
@@ -10412,23 +10631,26 @@
       <c r="AS72">
         <v>1</v>
       </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>44</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>2</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
       <c r="F73">
         <v>1</v>
       </c>
@@ -10549,23 +10771,26 @@
       <c r="AS73">
         <v>1</v>
       </c>
+      <c r="AT73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
         <v>9</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>45</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>2</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
       <c r="F74">
         <v>1</v>
       </c>
@@ -10686,23 +10911,26 @@
       <c r="AS74">
         <v>1</v>
       </c>
+      <c r="AT74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
         <v>9</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>2</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
       <c r="F75">
         <v>1</v>
       </c>
@@ -10823,23 +11051,26 @@
       <c r="AS75">
         <v>1</v>
       </c>
+      <c r="AT75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>50</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>2</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
       <c r="F76">
         <v>1</v>
       </c>
@@ -10958,6 +11189,9 @@
         <v>1</v>
       </c>
       <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
         <v>1</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8953122B-58D9-A144-A92F-BF1313750955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24980" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="-19980" windowWidth="24975" windowHeight="19575"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,55 +221,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AT76" totalsRowShown="0">
-  <autoFilter ref="A1:AT76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AT76" totalsRowShown="0">
+  <autoFilter ref="A1:AT76"/>
   <tableColumns count="46">
-    <tableColumn id="11" xr3:uid="{D9E4ABCE-B2A2-DC48-B86A-FD1AA61A2A9B}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_heating_technology"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_heating_system_action"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2010"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2011"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2012"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2013"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2014"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2015"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2016"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2017"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2018"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2019"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2021"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2022"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2023"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2024"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2025"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2026"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2027"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="2028"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="2029"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="2030"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="2031"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="2032"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2033"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="2034"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="2035"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="2036"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="2037"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="2038"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="2039"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="2040"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2041"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="2042"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="2043"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="2044"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="2045"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="2046"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="2047"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="2048"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="2049"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="2050"/>
+    <tableColumn id="11" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="3" name="id_heating_technology"/>
+    <tableColumn id="1" name="id_heating_system_action"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="35" name="2010"/>
+    <tableColumn id="36" name="2011"/>
+    <tableColumn id="37" name="2012"/>
+    <tableColumn id="38" name="2013"/>
+    <tableColumn id="39" name="2014"/>
+    <tableColumn id="40" name="2015"/>
+    <tableColumn id="41" name="2016"/>
+    <tableColumn id="42" name="2017"/>
+    <tableColumn id="43" name="2018"/>
+    <tableColumn id="44" name="2019"/>
+    <tableColumn id="5" name="2020"/>
+    <tableColumn id="6" name="2021"/>
+    <tableColumn id="7" name="2022"/>
+    <tableColumn id="8" name="2023"/>
+    <tableColumn id="9" name="2024"/>
+    <tableColumn id="10" name="2025"/>
+    <tableColumn id="45" name="2026"/>
+    <tableColumn id="46" name="2027"/>
+    <tableColumn id="47" name="2028"/>
+    <tableColumn id="48" name="2029"/>
+    <tableColumn id="49" name="2030"/>
+    <tableColumn id="50" name="2031"/>
+    <tableColumn id="51" name="2032"/>
+    <tableColumn id="52" name="2033"/>
+    <tableColumn id="53" name="2034"/>
+    <tableColumn id="54" name="2035"/>
+    <tableColumn id="55" name="2036"/>
+    <tableColumn id="56" name="2037"/>
+    <tableColumn id="57" name="2038"/>
+    <tableColumn id="58" name="2039"/>
+    <tableColumn id="59" name="2040"/>
+    <tableColumn id="60" name="2041"/>
+    <tableColumn id="61" name="2042"/>
+    <tableColumn id="62" name="2043"/>
+    <tableColumn id="63" name="2044"/>
+    <tableColumn id="64" name="2045"/>
+    <tableColumn id="65" name="2046"/>
+    <tableColumn id="66" name="2047"/>
+    <tableColumn id="67" name="2048"/>
+    <tableColumn id="68" name="2049"/>
+    <tableColumn id="69" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -538,24 +537,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -695,7 +694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -835,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -975,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3807,115 +3806,115 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -7307,115 +7306,115 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -10807,115 +10806,115 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>

--- a/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
+++ b/projects/test_building/input/Scenario_HeatingTechnology_Availability.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="57">
   <si>
     <t>unit</t>
   </si>
@@ -169,22 +169,10 @@
     <t>scenario 1</t>
   </si>
   <si>
-    <t>no oil boilers allowed after 2025</t>
-  </si>
-  <si>
-    <t>no (natural) gas boilers allowed after 2035</t>
-  </si>
-  <si>
     <t>no (natural) gas boilers allowed after 2040</t>
   </si>
   <si>
-    <t>no (natural) gas boilers allowed after 2045</t>
-  </si>
-  <si>
     <t>no oil boilers allowed after 2030</t>
-  </si>
-  <si>
-    <t>no oil boilers allowed after 2035</t>
   </si>
   <si>
     <t>scenario 10</t>
@@ -196,7 +184,13 @@
     <t>scenario 30</t>
   </si>
   <si>
-    <t>same as scenario 1</t>
+    <t>no oil and gas boilers allowed after 2025</t>
+  </si>
+  <si>
+    <t>no oil and gas boilers allowed after 2035</t>
+  </si>
+  <si>
+    <t>no oil and gas boilers allowed after 2045</t>
   </si>
 </sst>
 </file>
@@ -577,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11433,34 +11427,34 @@
         <v>1</v>
       </c>
       <c r="U78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78">
         <v>0</v>
@@ -12133,34 +12127,34 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE83">
         <v>0</v>
@@ -13253,34 +13247,34 @@
         <v>1</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE91">
         <v>0</v>
@@ -13813,34 +13807,34 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE95">
         <v>0</v>
@@ -14933,34 +14927,34 @@
         <v>1</v>
       </c>
       <c r="U103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE103">
         <v>0</v>
@@ -15633,34 +15627,34 @@
         <v>1</v>
       </c>
       <c r="U108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE108">
         <v>0</v>
@@ -16753,34 +16747,34 @@
         <v>1</v>
       </c>
       <c r="U116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -17313,34 +17307,34 @@
         <v>1</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE120">
         <v>0</v>
@@ -18433,34 +18427,34 @@
         <v>1</v>
       </c>
       <c r="U128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE128">
         <v>0</v>
@@ -19133,34 +19127,34 @@
         <v>1</v>
       </c>
       <c r="U133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE133">
         <v>0</v>
@@ -20253,34 +20247,34 @@
         <v>1</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE141">
         <v>0</v>
@@ -20813,34 +20807,34 @@
         <v>1</v>
       </c>
       <c r="U145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE145">
         <v>0</v>
@@ -21963,19 +21957,19 @@
         <v>1</v>
       </c>
       <c r="AE153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ153">
         <v>0</v>
@@ -22088,19 +22082,19 @@
         <v>1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE154">
         <v>0</v>
@@ -22663,19 +22657,19 @@
         <v>1</v>
       </c>
       <c r="AE158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ158">
         <v>0</v>
@@ -22788,19 +22782,19 @@
         <v>1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE159">
         <v>0</v>
@@ -23783,19 +23777,19 @@
         <v>1</v>
       </c>
       <c r="AE166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ166">
         <v>0</v>
@@ -23908,19 +23902,19 @@
         <v>1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE167">
         <v>0</v>
@@ -24343,19 +24337,19 @@
         <v>1</v>
       </c>
       <c r="AE170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ170">
         <v>0</v>
@@ -24468,19 +24462,19 @@
         <v>1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE171">
         <v>0</v>
@@ -24748,19 +24742,19 @@
         <v>1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE173">
         <v>0</v>
@@ -25463,19 +25457,19 @@
         <v>1</v>
       </c>
       <c r="AE178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -25588,19 +25582,19 @@
         <v>1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE179">
         <v>0</v>
@@ -26163,19 +26157,19 @@
         <v>1</v>
       </c>
       <c r="AE183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ183">
         <v>0</v>
@@ -26288,19 +26282,19 @@
         <v>1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE184">
         <v>0</v>
@@ -27283,19 +27277,19 @@
         <v>1</v>
       </c>
       <c r="AE191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ191">
         <v>0</v>
@@ -27408,19 +27402,19 @@
         <v>1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE192">
         <v>0</v>
@@ -27843,19 +27837,19 @@
         <v>1</v>
       </c>
       <c r="AE195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ195">
         <v>0</v>
@@ -27968,19 +27962,19 @@
         <v>1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE196">
         <v>0</v>
@@ -28248,19 +28242,19 @@
         <v>1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE198">
         <v>0</v>
@@ -28963,19 +28957,19 @@
         <v>1</v>
       </c>
       <c r="AE203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ203">
         <v>0</v>
@@ -29088,19 +29082,19 @@
         <v>1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE204">
         <v>0</v>
@@ -29663,19 +29657,19 @@
         <v>1</v>
       </c>
       <c r="AE208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ208">
         <v>0</v>
@@ -29788,19 +29782,19 @@
         <v>1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE209">
         <v>0</v>
@@ -30783,19 +30777,19 @@
         <v>1</v>
       </c>
       <c r="AE216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ216">
         <v>0</v>
@@ -30908,19 +30902,19 @@
         <v>1</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE217">
         <v>0</v>
@@ -31343,19 +31337,19 @@
         <v>1</v>
       </c>
       <c r="AE220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ220">
         <v>0</v>
@@ -31468,19 +31462,19 @@
         <v>1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE221">
         <v>0</v>
@@ -31748,19 +31742,19 @@
         <v>1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE223">
         <v>0</v>
@@ -32603,34 +32597,34 @@
         <v>1</v>
       </c>
       <c r="AE229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO229">
         <v>0</v>
@@ -33303,34 +33297,34 @@
         <v>1</v>
       </c>
       <c r="AE234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO234">
         <v>0</v>
@@ -34423,34 +34417,34 @@
         <v>1</v>
       </c>
       <c r="AE242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO242">
         <v>0</v>
@@ -34983,34 +34977,34 @@
         <v>1</v>
       </c>
       <c r="AE246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO246">
         <v>0</v>
@@ -35263,34 +35257,34 @@
         <v>1</v>
       </c>
       <c r="AE248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO248">
         <v>0</v>
@@ -36103,34 +36097,34 @@
         <v>1</v>
       </c>
       <c r="AE254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO254">
         <v>0</v>
@@ -36803,34 +36797,34 @@
         <v>1</v>
       </c>
       <c r="AE259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO259">
         <v>0</v>
@@ -37923,34 +37917,34 @@
         <v>1</v>
       </c>
       <c r="AE267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO267">
         <v>0</v>
@@ -38483,34 +38477,34 @@
         <v>1</v>
       </c>
       <c r="AE271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO271">
         <v>0</v>
@@ -38763,34 +38757,34 @@
         <v>1</v>
       </c>
       <c r="AE273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO273">
         <v>0</v>
@@ -39603,34 +39597,34 @@
         <v>1</v>
       </c>
       <c r="AE279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO279">
         <v>0</v>
@@ -40303,34 +40297,34 @@
         <v>1</v>
       </c>
       <c r="AE284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO284">
         <v>0</v>
@@ -41423,34 +41417,34 @@
         <v>1</v>
       </c>
       <c r="AE292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO292">
         <v>0</v>
@@ -41983,34 +41977,34 @@
         <v>1</v>
       </c>
       <c r="AE296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO296">
         <v>0</v>
@@ -42263,34 +42257,34 @@
         <v>1</v>
       </c>
       <c r="AE298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO298">
         <v>0</v>
@@ -42745,7 +42739,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42765,43 +42759,34 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
